--- a/biology/Médecine/Guy_Caro/Guy_Caro.xlsx
+++ b/biology/Médecine/Guy_Caro/Guy_Caro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Caro, né le 29 mai 1937 à Plessala (Côtes-d'Armor), est un médecin psychiatre et hygiéniste, militant régionaliste français. En tant que psychiatre, il exercera notamment dans le cadre du BAPU (bureau d'aide psychologique universitaire). Il fut également pendant un an directeur médical de la Clinique Burloud, établissement psychiatrique de 52 lits créé par la Fondation santé des étudiants de France, près de Rennes.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de notables de droite, proche du maire de Loudéac, Pierre Étienne, Guy Caro exerce comme médecin lorsqu'il s'engage en politique, au sein de la Convention des institutions républicaines de François Mitterrand, dont il est le président pour les Côtes-du-Nord en 1966.
-À la fin de l'année, il est désigné par la CIR pour la représenter à la direction de la FGDS avec six autres responsables du mouvement mitterrandiste. En 1967, il soutient une thèse d'État[1].
+À la fin de l'année, il est désigné par la CIR pour la représenter à la direction de la FGDS avec six autres responsables du mouvement mitterrandiste. En 1967, il soutient une thèse d'État.
 Il adhère cependant rapidement au Parti socialiste unifié, retrouvant des militants de la mouvance catholique de gauche dont il se sent proche.
 Dans le même temps, il rejoint le Front de libération de la Bretagne, mouvement nationaliste clandestin, qu'il quittera au début de l'année 1970.
 Candidat du PSU aux législatives de 1968 dans la circonscription de Loudéac, il arrive en tête de la gauche au premier tour, avec 26 % des voix, mais n'est pas élu.
@@ -554,7 +568,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Médecine en question, Paris : Maspero, 1969. Éd. revues et augmentées, 1974 et 1982. Ce livre contient la thèse pour le doctorat en Médecine soutenue à Paris par Guy CARO en1967, intitulée "Réflexion critique sur les principes de la charte médicale et le concept de médecine libérale".
 (es) La Medicina impugnada : la práctica social de la medicina en la sociedad capitalista, Barcelone : Laia, 1972.
